--- a/Avignon_Cleaned.xlsx
+++ b/Avignon_Cleaned.xlsx
@@ -486,10 +486,10 @@
         <v>RENOIR</v>
       </c>
       <c r="C2" t="str">
-        <v>AVIGNONSDsdfsd</v>
+        <v>AVIGNON5</v>
       </c>
       <c r="D2" t="str">
-        <v>FR</v>
+        <v>FRANCE</v>
       </c>
       <c r="E2" t="str">
         <v>AVIGNON</v>
